--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91FCAC-09B0-C346-BE6A-A42E1B8A83C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7581B50E-EF58-B34C-B958-A6BCA7015CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="11680" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -81,7 +81,19 @@
     <t>다시하기</t>
   </si>
   <si>
-    <t>다음 스테이지로</t>
+    <t>누르고 있으면 위로 올라갑니다.
+V
+V
+V</t>
+  </si>
+  <si>
+    <t>스테이지 선택</t>
+  </si>
+  <si>
+    <t>다음 스테이지</t>
+  </si>
+  <si>
+    <t>스테이지 {0}</t>
   </si>
 </sst>
 </file>
@@ -152,9 +164,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{75BC3B06-0B59-CC48-AF9E-0A0630656D29}"/>
@@ -1317,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1361,12 +1376,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="60">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1419,10 +1434,26 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7581B50E-EF58-B34C-B958-A6BCA7015CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C7230-5504-C14E-8BC6-02678FA93AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>스테이지 {0}</t>
+  </si>
+  <si>
+    <t>시작</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1456,6 +1459,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C7230-5504-C14E-8BC6-02678FA93AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB4477E-D265-1743-BEB2-4DC956D67EC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB4477E-D265-1743-BEB2-4DC956D67EC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F59A0-F3C5-4D48-8FCC-FD6491312E74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>시작</t>
+  </si>
+  <si>
+    <t>스와이프로 피버 시작</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1467,6 +1470,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F59A0-F3C5-4D48-8FCC-FD6491312E74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE2FD0-C226-8A46-8159-6E27DEE77908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>스와이프로 피버 시작</t>
+  </si>
+  <si>
+    <t>터치하면 시작</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1478,6 +1481,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE2FD0-C226-8A46-8159-6E27DEE77908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF216D29-22EA-0343-A890-F4F783F63403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -103,6 +103,13 @@
   </si>
   <si>
     <t>터치하면 시작</t>
+  </si>
+  <si>
+    <t>광고 보고 다시하기\n(구현 예정)</t>
+  </si>
+  <si>
+    <t>광고 보고 다시하기
+(구현 예정)</t>
   </si>
 </sst>
 </file>
@@ -1341,15 +1348,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="255.5" style="1"/>
   </cols>
@@ -1489,6 +1497,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF216D29-22EA-0343-A890-F4F783F63403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3F6C0-39D5-E848-9F13-AE99DC6DAD97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="10000" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="1300" yWindow="11020" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -110,6 +110,16 @@
   <si>
     <t>광고 보고 다시하기
 (구현 예정)</t>
+  </si>
+  <si>
+    <t>축하합니다!\n모든 스테이지를 클리어했습니다.</t>
+  </si>
+  <si>
+    <t>축하합니다!
+모든 스테이지를 클리어했습니다.</t>
+  </si>
+  <si>
+    <t>스테이지 1로 돌아가기</t>
   </si>
 </sst>
 </file>
@@ -1348,16 +1358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="1" customWidth="1"/>
     <col min="3" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="255.5" style="1"/>
   </cols>
@@ -1505,6 +1515,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merk-mac/ub/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3F6C0-39D5-E848-9F13-AE99DC6DAD97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B6DF5-9479-8D4A-891E-809D9252F07C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="11020" windowWidth="35920" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="0" yWindow="3880" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -105,13 +105,6 @@
     <t>터치하면 시작</t>
   </si>
   <si>
-    <t>광고 보고 다시하기\n(구현 예정)</t>
-  </si>
-  <si>
-    <t>광고 보고 다시하기
-(구현 예정)</t>
-  </si>
-  <si>
     <t>축하합니다!\n모든 스테이지를 클리어했습니다.</t>
   </si>
   <si>
@@ -120,6 +113,13 @@
   </si>
   <si>
     <t>스테이지 1로 돌아가기</t>
+  </si>
+  <si>
+    <t>광고 보고 이어하기
+(구현 예정)</t>
+  </si>
+  <si>
+    <t>광고 보고 이어하기\n(구현 예정)</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1509,26 +1509,26 @@
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merk-mac/ub/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B6DF5-9479-8D4A-891E-809D9252F07C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A11729-E4E5-5B44-B44D-28AAA6A8ABBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3880" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="14820" yWindow="7620" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -115,11 +115,11 @@
     <t>스테이지 1로 돌아가기</t>
   </si>
   <si>
-    <t>광고 보고 이어하기
+    <t>광고 보고 다시하기\n(구현 예정)</t>
+  </si>
+  <si>
+    <t>광고 보고 다시하기
 (구현 예정)</t>
-  </si>
-  <si>
-    <t>광고 보고 이어하기\n(구현 예정)</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A11729-E4E5-5B44-B44D-28AAA6A8ABBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CA6F2-FC16-3D4B-9EE4-CC91925C76BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="7620" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -120,6 +120,12 @@
   <si>
     <t>광고 보고 다시하기
 (구현 예정)</t>
+  </si>
+  <si>
+    <t>인터넷 연결이 필요합니다.</t>
+  </si>
+  <si>
+    <t>광고가 아직 준비되지 않았습니다.</t>
   </si>
 </sst>
 </file>
@@ -1358,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1531,6 +1537,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CA6F2-FC16-3D4B-9EE4-CC91925C76BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C8D1B-F151-AB4B-A0ED-24A5801339A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>광고가 아직 준비되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>확인</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1553,6 +1556,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C8D1B-F151-AB4B-A0ED-24A5801339A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89389118-49D2-B44C-AE2A-59F8E1C5C527}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>확인</t>
+  </si>
+  <si>
+    <t>구입을 실패했습니다.</t>
+  </si>
+  <si>
+    <t>잠시만 기다려 주십시오.</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1564,6 +1570,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89389118-49D2-B44C-AE2A-59F8E1C5C527}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB8FA6-1503-0A4C-846B-0048033B0F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>잠시만 기다려 주십시오.</t>
+  </si>
+  <si>
+    <t>설정</t>
+  </si>
+  <si>
+    <t>소리</t>
+  </si>
+  <si>
+    <t>켜짐</t>
+  </si>
+  <si>
+    <t>꺼짐</t>
+  </si>
+  <si>
+    <t>구매 내역 복원</t>
+  </si>
+  <si>
+    <t>광고 제거</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1586,6 +1604,54 @@
         <v>32</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB8FA6-1503-0A4C-846B-0048033B0F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCB53D-87FB-C54D-8BAA-52ADDA8C134A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>광고 제거</t>
+  </si>
+  <si>
+    <t>반발 블록과 충돌하여 피버 게이지를 채우세요.</t>
   </si>
 </sst>
 </file>
@@ -1391,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1652,6 +1655,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCB53D-87FB-C54D-8BAA-52ADDA8C134A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28101985-C860-8448-B552-FDC03D7A5489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="5460" windowWidth="33600" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="19200" yWindow="3020" windowWidth="31020" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>반발 블록과 충돌하여 피버 게이지를 채우세요.</t>
+  </si>
+  <si>
+    <t>마지막 체크포인트부터 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음부터 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -235,8 +247,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{75BC3B06-0B59-CC48-AF9E-0A0630656D29}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F430C1ED-A8CF-5449-A4C5-2300CC48B592}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1394,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1663,6 +1675,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StrKo.xlsx
+++ b/Data/StrKo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimgeoyeob/balloon-ios/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28101985-C860-8448-B552-FDC03D7A5489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41475B6E-2852-0C45-86C3-F25FC890E736}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="3020" windowWidth="31020" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
+    <workbookView xWindow="19200" yWindow="3000" windowWidth="31020" windowHeight="17120" xr2:uid="{15772E15-9524-4050-A165-54CC203BB2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="StrKo" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>[StrKoData]</t>
   </si>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>재도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 복원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 시도 해 주십시오.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1406,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14"/>
@@ -1699,6 +1707,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
